--- a/diagram/Ar3_diagram.xlsx
+++ b/diagram/Ar3_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAF9745-7993-4375-8597-F9A073B9CB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888054A-F8A2-4AF1-AD3A-198B5CD80277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="1164" windowWidth="17544" windowHeight="11244" xr2:uid="{46172BA6-4082-4EE6-A904-4399B6671550}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46172BA6-4082-4EE6-A904-4399B6671550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>Direction</t>
+  </si>
+  <si>
+    <t>F/UP</t>
+  </si>
+  <si>
+    <t>B/DOWN</t>
+  </si>
+  <si>
+    <t>F/OUT</t>
+  </si>
+  <si>
+    <t>B/IN</t>
+  </si>
+  <si>
+    <t>B/CLKW</t>
+  </si>
+  <si>
+    <t>F/CCLKW</t>
+  </si>
+  <si>
+    <t>F/FONT</t>
+  </si>
+  <si>
+    <t>B/BACK</t>
   </si>
 </sst>
 </file>
@@ -475,7 +499,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,6 +545,12 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -532,6 +562,12 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -543,6 +579,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -553,6 +595,12 @@
       </c>
       <c r="C5">
         <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/diagram/Ar3_diagram.xlsx
+++ b/diagram/Ar3_diagram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agiat_Ikazinat\Agiat_Ikazinat\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6888054A-F8A2-4AF1-AD3A-198B5CD80277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3D349-E84A-44FD-BF3C-326E83B15BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46172BA6-4082-4EE6-A904-4399B6671550}"/>
+    <workbookView xWindow="1044" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{46172BA6-4082-4EE6-A904-4399B6671550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +543,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
+      </c>
+      <c r="G2">
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -560,10 +566,19 @@
         <v>12</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
+      </c>
+      <c r="F3">
+        <v>230</v>
+      </c>
+      <c r="G3">
+        <v>270</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -577,10 +592,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -594,10 +615,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>124</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
